--- a/data/inexploitable/Metaux lourds 11-16[1].xlsx
+++ b/data/inexploitable/Metaux lourds 11-16[1].xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LFA/Cours-analyse-polluants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swann\Documents\GitHub\env-300-analyse_poluants\data\inexploitable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB10CE2-2EF5-40A6-95F7-77585FA5E9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1880" windowWidth="26640" windowHeight="26840" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -317,6 +318,21 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -330,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,6 +402,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -401,6 +418,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -668,16 +688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" zoomScaleNormal="218" zoomScalePageLayoutView="218" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="218" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,14 +708,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -712,7 +732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -729,7 +749,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -746,7 +766,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -763,7 +783,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -780,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -797,7 +817,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -814,7 +834,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -831,7 +851,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -848,7 +868,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -865,7 +885,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -882,7 +902,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -899,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -916,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -933,7 +953,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -950,7 +970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -967,7 +987,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -985,7 +1005,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,14 +1016,14 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1091,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1108,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1142,7 @@
         <v>96.22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +1158,9 @@
       <c r="E31" s="12">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1228,7 @@
         <v>107.03</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>35.409999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
@@ -1292,14 +1313,14 @@
         <v>62.58</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,14 +1331,14 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1389,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1406,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1415,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>18.690000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>23.81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1483,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1500,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1517,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1526,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>13</v>
       </c>
@@ -1514,7 +1535,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1552,7 @@
         <v>16.489999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1569,7 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1603,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,14 +1614,14 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +1638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1655,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>63.96</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1706,7 @@
         <v>52.37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>6</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>7</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>65.69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>8</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1774,7 @@
         <v>119.08</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>10</v>
       </c>
@@ -1770,7 +1791,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1825,7 @@
         <v>125.31</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1842,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>15</v>
       </c>
@@ -1855,7 +1876,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1893,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>44.86</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,14 +1921,14 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1962,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1979,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1988,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2022,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2039,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2056,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>32.83</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -2063,14 +2084,14 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2125,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2142,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2159,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2176,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2193,7 @@
         <v>77.41</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2210,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>8</v>
       </c>
@@ -2206,7 +2227,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>9</v>
       </c>
